--- a/Lecture 2 - Descriptive statistics/Examples/Practice_problem1.xlsx
+++ b/Lecture 2 - Descriptive statistics/Examples/Practice_problem1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teaching\Statistics\Introductory_statistics\Lecture 2 - Descriptive statistics\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19059561-091F-47C4-BBAC-DDE987D699FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6634C-C03F-4432-B2BF-496A1521FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice problem 1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Variable</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>Variable 1</t>
+  </si>
+  <si>
+    <t>x-mean(x)</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>(x-mean(x))^2</t>
+  </si>
+  <si>
+    <t>Or use =VAR.P()</t>
+  </si>
+  <si>
+    <t>Note: VAR.S() is slightly different. We will get to it :-)</t>
   </si>
 </sst>
 </file>
@@ -180,6 +195,872 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$D$15:$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDF3-4A2D-AA19-B8E4C6167B2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1207659056"/>
+        <c:axId val="1207660136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1207659056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1207660136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1207660136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1207659056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2FB9DE-4FF3-E11D-9B33-CD32AA389446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,7 +1269,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,22 +1286,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -435,34 +1316,38 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
     <col min="4" max="4" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
@@ -623,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
@@ -631,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
@@ -639,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>13</v>
       </c>
@@ -647,13 +1532,171 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
         <f>MODE(A2:A11)</f>
         <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(C31:C40)</f>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <f>A31-AVERAGE(A$31:A$40)</f>
+        <v>-1.9000000000000004</v>
+      </c>
+      <c r="C31">
+        <f>B31^2</f>
+        <v>3.6100000000000012</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <f>_xlfn.VAR.P(A31:A40)</f>
+        <v>1.89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B40" si="0">A32-AVERAGE(A$31:A$40)</f>
+        <v>-1.9000000000000004</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C40" si="1">B32^2</f>
+        <v>3.6100000000000012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.81000000000000061</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.81000000000000061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999291E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999291E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999291E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>1.2099999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>4.4099999999999984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>4.4099999999999984</v>
       </c>
     </row>
   </sheetData>
@@ -661,6 +1704,7 @@
     <sortCondition ref="A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
